--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/fc6.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/fc6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,504 +468,924 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual evento ocorreu em 7 de junho de 1981, envolvendo pilotos israelenses em território hostil?</t>
+          <t>Como pode ser definido o consumo na economia?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O bombardeio de um reator nuclear que estava sendo construído em Osirak, nas imediações de Bagdá.</t>
+          <t>Corresponde à parcela da renda destinada à aquisição de bens e serviços para a satisfação das necessidades dos indivíduos.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual piloto israelense participou do ataque a Osirak e se tornou o primeiro israelense a viajar pelo espaço sideral?</t>
+          <t>Quais são as três categorias em que se classificam os bens adquiridos pelos indivíduos?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ilan Ramon, que participou da missão do ônibus espacial Columbia.</t>
+          <t>Bens de consumo leves (ex: alimentos), bens de consumo duráveis (ex: automóveis) e serviços (ex: educação).,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual direito Israel invocou para justificar o ataque preventivo contra o reator nuclear de Osirak em 1981?</t>
+          <t>Em quais componentes o consumo agregado é dividido?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>O direito de legítima defesa preventiva, alegando que um Iraque com armas nucleares representaria uma ameaça inaceitável.</t>
+          <t>Pode ser dividido em consumo pessoal (famílias) e consumo do governo.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual foi a reação do Conselho de Segurança da ONU ao ataque israelense de 1981 contra Osirak?</t>
+          <t>Quais são os três destinos possíveis para a renda das famílias segundo a contabilidade econômica?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adotou por unanimidade uma resolução condenando a ação israelense como ilegal.</t>
+          <t>Ser consumida, ser poupada ou ser usada para o pagamento de impostos.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual exigência do Artigo 51 da Carta da ONU é vista como neutralizadora de qualquer direito preventivo de legítima defesa?</t>
+          <t>O que postula a "lei psicológica fundamental" de Keynes sobre a relação entre renda e consumo?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A exigência de que a legítima defesa se aplique somente "no caso de ocorrer um ataque armado".</t>
+          <t>Postula que os indivíduos aumentam o consumo conforme a renda aumenta, mas não na mesma magnitude, pois também aumentam a poupança.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Quais critérios do caso *Caroline* eram amplamente aceitos como um direito limitado de legítima defesa preventiva no direito consuetudinário antes de 1945?</t>
+          <t>Como é definida a poupança agregada?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A "necessidade de legítima defesa, urgente, incontornável, sem oferecer opção de meios nem tempo para deliberação".</t>
+          <t>É a parcela da renda disponível não consumida em determinado período, representando uma opção pelo consumo futuro.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Como Israel justificou os ataques que iniciaram a Guerra dos Seis Dias em 1967, evitando invocar um direito preventivo de legítima defesa?</t>
+          <t>O que é a Propensão Marginal a Consumir?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alegando que o bloqueio do estreito de Tiran pelo Egito constituía um ato prévio de agressão.</t>
+          <t>É a parcela do aumento (acréscimo) de renda que é destinada ao consumo.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Qual alegação os EUA usaram para justificar o bloqueio de Cuba em 1962, em vez de invocar a ação preventiva?</t>
+          <t>Segundo a teoria keynesiana, como a propensão média a consumir se comporta em relação ao nível de renda?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Falaram de "manutenção da paz regional".</t>
+          <t>Ela tende a ser decrescente conforme a renda aumenta, ou seja, indivíduos mais ricos poupam uma parcela maior de sua renda do que os mais pobres.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Qual o cerne da nova e abrangente política de intervenção militar preventiva, identificada como a "Doutrina Bush", anunciada em junho de 2002?</t>
+          <t>Como o governo pode afetar o montante consumido pelas famílias através da política fiscal?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A defesa de levar a batalha até o inimigo, impedindo seus planos e fazendo frente às ameaças mais graves, antes mesmo que se materializem.</t>
+          <t>Por meio dos impostos: quanto maior a quantidade de impostos, menor será a renda disponível e, consequentemente, menor o consumo.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Quais potências nucleares seriam beneficiadas pela aplicação equitativa de um direito ampliado de legítima defesa preventiva, conforme o direito consuetudinário?</t>
+          <t>Considerando duas famílias com o mesmo nível de renda, qual tende a consumir mais?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Índia, Paquistão e Israel.</t>
+          <t>Tende a consumir mais aquela que possuir maior riqueza acumulada, pois tem mais garantias para o futuro.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Na ausência de um ataque, quem a Carta da ONU determina que pode agir em resposta a ameaças biológicas, químicas ou nucleares?</t>
+          <t>O que é o "efeito riqueza" e como ele afeta a economia?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Somente o Conselho de Segurança da ONU.</t>
+          <t>É o impacto da variação do valor dos ativos (como ações) no consumo; uma queda nos preços dos ativos reduz a riqueza e retrai o consumo (e vice-versa).</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qual fator é tipicamente fatal para o desenvolvimento do direito consuetudinário internacional em relação a uma nova alegação jurídica, como a da legítima defesa preventiva ampliada?</t>
+          <t>O que postula o Modelo do Ciclo de Vida de Ando e Modigliani sobre o comportamento da poupança?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A inexistência de amplas vantagens recíprocas, pois a maioria dos países nada tem a lucrar com a ampliação desse direito.</t>
+          <t>Os indivíduos poupam quando jovens (fase produtiva) para despoupar na velhice (aposentadoria), visando manter o padrão de consumo.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Qual documento de setembro de 2002 reformulou a Doutrina Bush, adotando explicitamente o critério da iminência do caso *Caroline*?</t>
+          <t>Segundo o modelo do ciclo de vida, como o envelhecimento da população afeta a taxa de poupança?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A Estratégia de Segurança Nacional dos Estados Unidos.</t>
+          <t>Uma sociedade com alta participação de idosos tende a ter uma taxa de poupança menor, pois os idosos estão na fase de despoupança.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>O que a Estratégia de Segurança Nacional procurou adaptar no conceito de ameaça iminente?</t>
+          <t>Quais são os dois componentes da renda no modelo da renda permanente de Milton Friedman?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Adaptar aos objetivos e capacitações dos adversários atuais (terrorismo e armas de destruição em massa).</t>
+          <t>A renda permanente (esperada como média ao longo da vida) e a renda transitória (desvios aleatórios, como um bônus).</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Qual seria o efeito da ampliação do critério de iminência defendido pela Estratégia de Segurança Nacional?</t>
+          <t>Segundo Friedman, como os indivíduos reagem a um aumento na renda transitória?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aumentar consideravelmente a ambiguidade da lei, permitindo que o poder e a influência desempenhem maior papel na aplicação da lei.</t>
+          <t>Eles tendem a poupar a maior parte desse aumento, pois o consumo é baseado na renda permanente.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Qual tema central foi recorrente nos discursos de abertura da Assembleia Geral da ONU em setembro de 2003?</t>
+          <t>Quais são os dois regimes financeiros básicos de previdência social?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A exortação a um retorno ao diálogo multilateral, à persuasão e à ação coletiva.</t>
+          <t>O Sistema de Repartição Simples (SRS) e o Regime de Capitalização (RC).</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O que o presidente George W. Bush declarou em fevereiro de 2004 sobre a ameaça iminente em um "novo tipo de guerra"?</t>
+          <t>Por que o Estado estabelece a compulsoriedade dos sistemas previdenciários?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Que será "tarde demais quando ela se tornar iminente" e é preciso enfrentá-la antes.</t>
+          <t>Devido à miopia dos agentes (falta de visão de longo prazo), incertezas do futuro e necessidade de garantir um padrão mínimo (redistribuição).,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Qual foi o parecer categorizado do Painel de Alto Nível da ONU em 2004 sobre a ação militar preventiva?</t>
+          <t>Qual é a crítica comum aos sistemas de previdência baseados em Repartição Simples (SRS) em relação à poupança?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Se houver comprovação sólida para uma ação preventiva, a questão deve ser apresentada ao Conselho de Segurança, que tem o poder de autorizar a iniciativa.</t>
+          <t>Alega-se que desestimulam a poupança privada, pois os indivíduos contam com o benefício garantido pelo Estado (efeito carona).</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cap. 6 - Legítima defesa preventiva</t>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>O que representa a taxa de juros na escolha intertemporal de consumo?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Reflete o preço do consumo atual em termos de consumo futuro, correspondendo ao "prêmio pela espera".</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>O que é o "efeito substituição" causado por um aumento na taxa de juros?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>O consumo presente fica mais caro relativo ao futuro, levando os indivíduos a pouparem mais e consumirem menos no presente.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Como a taxa de juros afeta a aquisição de bens de consumo duráveis?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Taxas altas inibem o consumo desses bens, pois encarecem os financiamentos ou tornam a aplicação financeira mais atrativa que a compra imediata.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>O que é o "efeito riqueza" provocado pelo aumento da taxa de juros em agentes poupadores?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>O aumento dos juros eleva a renda vinda das aplicações financeiras, permitindo que esses agentes consumam mais.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Por que um sistema financeiro desenvolvido é importante para o consumo intertemporal?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Porque permite que indivíduos transfiram renda no tempo (poupar ou tomar emprestado) sem risco de corrosão inflacionária ou restrições excessivas.,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>O que caracteriza a "restrição ao crédito"?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Situação em que agentes desejam tomar empréstimos à taxa de juros vigente, mas não conseguem devido a exigências de garantias ou falhas de mercado.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>O que é a "poupança precaucionária"?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>É a poupança gerada pela incerteza com relação à renda futura (ex: medo do desemprego), levando à redução do consumo corrente.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Além da taxa de juros, qual outra variável influencia fortemente a demanda por crédito ao consumidor?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>O prazo do financiamento; quanto maior o prazo, menor a prestação e maior o estímulo ao consumo.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Como as reformas financeiras de 1964/1966 impactaram o consumo no "Milagre Econômico"?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Criaram mecanismos de crédito direto ao consumidor (letras de câmbio), impulsionando fortemente a venda de bens duráveis.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Qual é a principal observação sobre a relação consumo-renda ao longo de séries históricas?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Verifica-se uma relativa estabilidade da participação do consumo na renda ao longo do tempo.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Por que o consumo tende a ser estável mesmo com flutuações de renda?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Devido à imperfeição dos mercados (restrição ao crédito) e à dificuldade de prever a renda futura, fazendo a renda corrente ser o principal determinante.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Por que o consumo é considerado o componente mais importante da demanda agregada?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Porque possui a maior participação percentual no PIB em praticamente todos os países.,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Com base nos dados de 1995 a 2021, qual a média aproximada da participação do Consumo Final no PIB brasileiro?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>O consumo final (famílias + governo) representa historicamente mais de 80% do PIB brasileiro.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Qual componente tem maior peso no PIB brasileiro: o consumo das famílias ou da administração pública?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>O consumo das famílias é significativamente maior, representando cerca de 60-65% do PIB, contra cerca de 20% da administração pública.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>O que ocorreu com a participação do consumo das famílias no PIB durante a pandemia (2020-2021)?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Houve uma leve queda na participação para cerca de 63%, comparado a níveis de 65% em anos anteriores, refletindo a retração econômica.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
         </is>
       </c>
     </row>
